--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H2">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I2">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J2">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.816638</v>
+        <v>46.885638</v>
       </c>
       <c r="N2">
-        <v>104.449914</v>
+        <v>140.656914</v>
       </c>
       <c r="O2">
-        <v>0.9035735059642001</v>
+        <v>0.9391581745190208</v>
       </c>
       <c r="P2">
-        <v>0.9035735059641998</v>
+        <v>0.9391581745190206</v>
       </c>
       <c r="Q2">
-        <v>343.626139532702</v>
+        <v>1292.845790148922</v>
       </c>
       <c r="R2">
-        <v>3092.635255794319</v>
+        <v>11635.6121113403</v>
       </c>
       <c r="S2">
-        <v>0.0141689822803411</v>
+        <v>0.03133639197329337</v>
       </c>
       <c r="T2">
-        <v>0.01416898228034109</v>
+        <v>0.03133639197329336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H3">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I3">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J3">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.6928</v>
       </c>
       <c r="O3">
-        <v>0.02329482757506529</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="P3">
-        <v>0.02329482757506528</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="Q3">
-        <v>8.858949070400001</v>
+        <v>24.7508284144</v>
       </c>
       <c r="R3">
-        <v>79.73054163360001</v>
+        <v>222.7574557296</v>
       </c>
       <c r="S3">
-        <v>0.0003652873805573694</v>
+        <v>0.0005999181547924788</v>
       </c>
       <c r="T3">
-        <v>0.0003652873805573693</v>
+        <v>0.0005999181547924787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H4">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I4">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J4">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1110283333333333</v>
+        <v>0.055091</v>
       </c>
       <c r="N4">
-        <v>0.333085</v>
+        <v>0.165273</v>
       </c>
       <c r="O4">
-        <v>0.002881445945796428</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="P4">
-        <v>0.002881445945796427</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="Q4">
-        <v>1.095804757543889</v>
+        <v>1.519104153495666</v>
       </c>
       <c r="R4">
-        <v>9.862242817895002</v>
+        <v>13.671937381461</v>
       </c>
       <c r="S4">
-        <v>4.518410099262901E-05</v>
+        <v>3.682051143680086E-05</v>
       </c>
       <c r="T4">
-        <v>4.518410099262899E-05</v>
+        <v>3.682051143680085E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H5">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I5">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J5">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.621273</v>
+        <v>1.917658</v>
       </c>
       <c r="N5">
-        <v>7.863819</v>
+        <v>5.752974</v>
       </c>
       <c r="O5">
-        <v>0.06802818912898184</v>
+        <v>0.03841227854533613</v>
       </c>
       <c r="P5">
-        <v>0.06802818912898183</v>
+        <v>0.03841227854533612</v>
       </c>
       <c r="Q5">
-        <v>25.87090464195033</v>
+        <v>52.87836911263533</v>
       </c>
       <c r="R5">
-        <v>232.838141777553</v>
+        <v>475.905322013718</v>
       </c>
       <c r="S5">
-        <v>0.00106675350701399</v>
+        <v>0.001281682095457927</v>
       </c>
       <c r="T5">
-        <v>0.00106675350701399</v>
+        <v>0.001281682095457927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H6">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I6">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J6">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06472133333333334</v>
+        <v>0.1571176666666667</v>
       </c>
       <c r="N6">
-        <v>0.194164</v>
+        <v>0.471353</v>
       </c>
       <c r="O6">
-        <v>0.001679670566430844</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="P6">
-        <v>0.001679670566430843</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="Q6">
-        <v>0.6387733910075556</v>
+        <v>4.332433610224554</v>
       </c>
       <c r="R6">
-        <v>5.748960519068</v>
+        <v>38.99190249202099</v>
       </c>
       <c r="S6">
-        <v>2.633899991033165E-05</v>
+        <v>0.0001050108519072709</v>
       </c>
       <c r="T6">
-        <v>2.633899991033164E-05</v>
+        <v>0.0001050108519072709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.869595666666667</v>
+        <v>27.57445233333333</v>
       </c>
       <c r="H7">
-        <v>29.608787</v>
+        <v>82.72335699999999</v>
       </c>
       <c r="I7">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="J7">
-        <v>0.01568105105651745</v>
+        <v>0.03336646884785083</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.02089833333333333</v>
+        <v>0.009942666666666667</v>
       </c>
       <c r="N7">
-        <v>0.062695</v>
+        <v>0.029828</v>
       </c>
       <c r="O7">
-        <v>0.0005423608195256678</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="P7">
-        <v>0.0005423608195256676</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="Q7">
-        <v>0.2062581001072223</v>
+        <v>0.2741635880662222</v>
       </c>
       <c r="R7">
-        <v>1.856322900965</v>
+        <v>2.467472292596</v>
       </c>
       <c r="S7">
-        <v>8.504787702036644E-06</v>
+        <v>6.645260962993931E-06</v>
       </c>
       <c r="T7">
-        <v>8.504787702036641E-06</v>
+        <v>6.64526096299393E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H8">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I8">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J8">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.816638</v>
+        <v>46.885638</v>
       </c>
       <c r="N8">
-        <v>104.449914</v>
+        <v>140.656914</v>
       </c>
       <c r="O8">
-        <v>0.9035735059642001</v>
+        <v>0.9391581745190208</v>
       </c>
       <c r="P8">
-        <v>0.9035735059641998</v>
+        <v>0.9391581745190206</v>
       </c>
       <c r="Q8">
-        <v>8509.74960237511</v>
+        <v>11459.60845868011</v>
       </c>
       <c r="R8">
-        <v>76587.746421376</v>
+        <v>103136.476128121</v>
       </c>
       <c r="S8">
-        <v>0.3508885892387644</v>
+        <v>0.2777614973556154</v>
       </c>
       <c r="T8">
-        <v>0.3508885892387643</v>
+        <v>0.2777614973556153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H9">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I9">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J9">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.6928</v>
       </c>
       <c r="O9">
-        <v>0.02329482757506529</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="P9">
-        <v>0.02329482757506528</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="Q9">
         <v>219.387961672</v>
@@ -1013,10 +1013,10 @@
         <v>1974.491655048</v>
       </c>
       <c r="S9">
-        <v>0.00904618067088255</v>
+        <v>0.005317592564836174</v>
       </c>
       <c r="T9">
-        <v>0.009046180670882547</v>
+        <v>0.005317592564836173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H10">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I10">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J10">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1110283333333333</v>
+        <v>0.055091</v>
       </c>
       <c r="N10">
-        <v>0.333085</v>
+        <v>0.165273</v>
       </c>
       <c r="O10">
-        <v>0.002881445945796428</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="P10">
-        <v>0.002881445945796427</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="Q10">
-        <v>27.13712092005278</v>
+        <v>13.46513168056167</v>
       </c>
       <c r="R10">
-        <v>244.234088280475</v>
+        <v>121.186185125055</v>
       </c>
       <c r="S10">
-        <v>0.001118964308066293</v>
+        <v>0.0003263719830541328</v>
       </c>
       <c r="T10">
-        <v>0.001118964308066293</v>
+        <v>0.0003263719830541328</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H11">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I11">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J11">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.621273</v>
+        <v>1.917658</v>
       </c>
       <c r="N11">
-        <v>7.863819</v>
+        <v>5.752974</v>
       </c>
       <c r="O11">
-        <v>0.06802818912898184</v>
+        <v>0.03841227854533613</v>
       </c>
       <c r="P11">
-        <v>0.06802818912898183</v>
+        <v>0.03841227854533612</v>
       </c>
       <c r="Q11">
-        <v>640.6815290283516</v>
+        <v>468.7066397103434</v>
       </c>
       <c r="R11">
-        <v>5766.133761255165</v>
+        <v>4218.35975739309</v>
       </c>
       <c r="S11">
-        <v>0.0264176795295302</v>
+        <v>0.01136065499409381</v>
       </c>
       <c r="T11">
-        <v>0.0264176795295302</v>
+        <v>0.01136065499409381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H12">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I12">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J12">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.06472133333333334</v>
+        <v>0.1571176666666667</v>
       </c>
       <c r="N12">
-        <v>0.194164</v>
+        <v>0.471353</v>
       </c>
       <c r="O12">
-        <v>0.001679670566430844</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="P12">
-        <v>0.001679670566430843</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="Q12">
-        <v>15.81894094997111</v>
+        <v>38.40209963531722</v>
       </c>
       <c r="R12">
-        <v>142.37046854974</v>
+        <v>345.618896717855</v>
       </c>
       <c r="S12">
-        <v>0.0006522737016418745</v>
+        <v>0.0009308018449989693</v>
       </c>
       <c r="T12">
-        <v>0.0006522737016418741</v>
+        <v>0.0009308018449989692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>244.4161783333333</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H13">
-        <v>733.2485349999999</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I13">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="J13">
-        <v>0.3883343047606652</v>
+        <v>0.2957558214279163</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02089833333333333</v>
+        <v>0.009942666666666667</v>
       </c>
       <c r="N13">
-        <v>0.062695</v>
+        <v>0.029828</v>
       </c>
       <c r="O13">
-        <v>0.0005423608195256678</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="P13">
-        <v>0.0005423608195256676</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="Q13">
-        <v>5.107890766869445</v>
+        <v>2.430148589108889</v>
       </c>
       <c r="R13">
-        <v>45.971016901825</v>
+        <v>21.87133730198</v>
       </c>
       <c r="S13">
-        <v>0.0002106173117799248</v>
+        <v>5.890268531785999E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002106173117799247</v>
+        <v>5.890268531785998E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H14">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I14">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J14">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.816638</v>
+        <v>46.885638</v>
       </c>
       <c r="N14">
-        <v>104.449914</v>
+        <v>140.656914</v>
       </c>
       <c r="O14">
-        <v>0.9035735059642001</v>
+        <v>0.9391581745190208</v>
       </c>
       <c r="P14">
-        <v>0.9035735059641998</v>
+        <v>0.9391581745190206</v>
       </c>
       <c r="Q14">
-        <v>3192.289154698726</v>
+        <v>6810.624342138761</v>
       </c>
       <c r="R14">
-        <v>28730.60239228854</v>
+        <v>61295.61907924884</v>
       </c>
       <c r="S14">
-        <v>0.1316299409822597</v>
+        <v>0.1650779973870896</v>
       </c>
       <c r="T14">
-        <v>0.1316299409822597</v>
+        <v>0.1650779973870895</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H15">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I15">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J15">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.6928</v>
       </c>
       <c r="O15">
-        <v>0.02329482757506529</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="P15">
-        <v>0.02329482757506528</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="Q15">
-        <v>82.29969663520001</v>
+        <v>130.385693152</v>
       </c>
       <c r="R15">
-        <v>740.6972697168001</v>
+        <v>1173.471238368</v>
       </c>
       <c r="S15">
-        <v>0.003393522229965923</v>
+        <v>0.003160328338811378</v>
       </c>
       <c r="T15">
-        <v>0.003393522229965922</v>
+        <v>0.003160328338811377</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H16">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I16">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J16">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1110283333333333</v>
+        <v>0.055091</v>
       </c>
       <c r="N16">
-        <v>0.333085</v>
+        <v>0.165273</v>
       </c>
       <c r="O16">
-        <v>0.002881445945796428</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="P16">
-        <v>0.002881445945796427</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="Q16">
-        <v>10.18003359095944</v>
+        <v>8.002538125486668</v>
       </c>
       <c r="R16">
-        <v>91.62030231863501</v>
+        <v>72.02284312938001</v>
       </c>
       <c r="S16">
-        <v>0.0004197606030779113</v>
+        <v>0.0001939679684864724</v>
       </c>
       <c r="T16">
-        <v>0.0004197606030779112</v>
+        <v>0.0001939679684864723</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H17">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I17">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J17">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.621273</v>
+        <v>1.917658</v>
       </c>
       <c r="N17">
-        <v>7.863819</v>
+        <v>5.752974</v>
       </c>
       <c r="O17">
-        <v>0.06802818912898184</v>
+        <v>0.03841227854533613</v>
       </c>
       <c r="P17">
-        <v>0.06802818912898183</v>
+        <v>0.03841227854533612</v>
       </c>
       <c r="Q17">
-        <v>240.3408786742877</v>
+        <v>278.5596786524933</v>
       </c>
       <c r="R17">
-        <v>2163.067908068589</v>
+        <v>2507.03710787244</v>
       </c>
       <c r="S17">
-        <v>0.009910147277528368</v>
+        <v>0.00675181475217062</v>
       </c>
       <c r="T17">
-        <v>0.009910147277528368</v>
+        <v>0.006751814752170619</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H18">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I18">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J18">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.06472133333333334</v>
+        <v>0.1571176666666667</v>
       </c>
       <c r="N18">
-        <v>0.194164</v>
+        <v>0.471353</v>
       </c>
       <c r="O18">
-        <v>0.001679670566430844</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="P18">
-        <v>0.001679670566430843</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="Q18">
-        <v>5.934209112253778</v>
+        <v>22.82296777490889</v>
       </c>
       <c r="R18">
-        <v>53.407882010284</v>
+        <v>205.40670997418</v>
       </c>
       <c r="S18">
-        <v>0.0002446894868757811</v>
+        <v>0.0005531900785367495</v>
       </c>
       <c r="T18">
-        <v>0.0002446894868757811</v>
+        <v>0.0005531900785367494</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.68861033333333</v>
+        <v>145.2603533333333</v>
       </c>
       <c r="H19">
-        <v>275.065831</v>
+        <v>435.78106</v>
       </c>
       <c r="I19">
-        <v>0.1456770701148412</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="J19">
-        <v>0.1456770701148413</v>
+        <v>0.1757723053112245</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.02089833333333333</v>
+        <v>0.009942666666666667</v>
       </c>
       <c r="N19">
-        <v>0.062695</v>
+        <v>0.029828</v>
       </c>
       <c r="O19">
-        <v>0.0005423608195256678</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="P19">
-        <v>0.0005423608195256676</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="Q19">
-        <v>1.916139141616111</v>
+        <v>1.444275273075556</v>
       </c>
       <c r="R19">
-        <v>17.245252274545</v>
+        <v>12.99847745768</v>
       </c>
       <c r="S19">
-        <v>7.900953513358346E-05</v>
+        <v>3.500678612970357E-05</v>
       </c>
       <c r="T19">
-        <v>7.900953513358344E-05</v>
+        <v>3.500678612970357E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H20">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I20">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J20">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.816638</v>
+        <v>46.885638</v>
       </c>
       <c r="N20">
-        <v>104.449914</v>
+        <v>140.656914</v>
       </c>
       <c r="O20">
-        <v>0.9035735059642001</v>
+        <v>0.9391581745190208</v>
       </c>
       <c r="P20">
-        <v>0.9035735059641998</v>
+        <v>0.9391581745190206</v>
       </c>
       <c r="Q20">
-        <v>2553.924472192286</v>
+        <v>2930.493125685276</v>
       </c>
       <c r="R20">
-        <v>22985.32024973058</v>
+        <v>26374.43813116748</v>
       </c>
       <c r="S20">
-        <v>0.1053077936417529</v>
+        <v>0.07103018933985741</v>
       </c>
       <c r="T20">
-        <v>0.1053077936417529</v>
+        <v>0.0710301893398574</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H21">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I21">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J21">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.6928</v>
       </c>
       <c r="O21">
-        <v>0.02329482757506529</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="P21">
-        <v>0.02329482757506528</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="Q21">
-        <v>65.8421587472</v>
+        <v>56.10269459520001</v>
       </c>
       <c r="R21">
-        <v>592.5794287248</v>
+        <v>504.9242513568</v>
       </c>
       <c r="S21">
-        <v>0.002714916804225538</v>
+        <v>0.00135983428339945</v>
       </c>
       <c r="T21">
-        <v>0.002714916804225537</v>
+        <v>0.00135983428339945</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H22">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I22">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J22">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1110283333333333</v>
+        <v>0.055091</v>
       </c>
       <c r="N22">
-        <v>0.333085</v>
+        <v>0.165273</v>
       </c>
       <c r="O22">
-        <v>0.002881445945796428</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="P22">
-        <v>0.002881445945796427</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="Q22">
-        <v>8.144323917970555</v>
+        <v>3.443352883182</v>
       </c>
       <c r="R22">
-        <v>73.298915261735</v>
+        <v>30.990175948638</v>
       </c>
       <c r="S22">
-        <v>0.0003358207307395511</v>
+        <v>8.346104111715586E-05</v>
       </c>
       <c r="T22">
-        <v>0.000335820730739551</v>
+        <v>8.346104111715583E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H23">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I23">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J23">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.621273</v>
+        <v>1.917658</v>
       </c>
       <c r="N23">
-        <v>7.863819</v>
+        <v>5.752974</v>
       </c>
       <c r="O23">
-        <v>0.06802818912898184</v>
+        <v>0.03841227854533613</v>
       </c>
       <c r="P23">
-        <v>0.06802818912898183</v>
+        <v>0.03841227854533612</v>
       </c>
       <c r="Q23">
-        <v>192.2797158932143</v>
+        <v>119.859381809316</v>
       </c>
       <c r="R23">
-        <v>1730.517443038929</v>
+        <v>1078.734436283844</v>
       </c>
       <c r="S23">
-        <v>0.007928406992159857</v>
+        <v>0.002905188382614998</v>
       </c>
       <c r="T23">
-        <v>0.007928406992159855</v>
+        <v>0.002905188382614997</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H24">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I24">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J24">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.06472133333333334</v>
+        <v>0.1571176666666667</v>
       </c>
       <c r="N24">
-        <v>0.194164</v>
+        <v>0.471353</v>
       </c>
       <c r="O24">
-        <v>0.001679670566430844</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="P24">
-        <v>0.001679670566430843</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="Q24">
-        <v>4.747540445258222</v>
+        <v>9.820325833902</v>
       </c>
       <c r="R24">
-        <v>42.727864007324</v>
+        <v>88.38293250511799</v>
       </c>
       <c r="S24">
-        <v>0.0001957587293433034</v>
+        <v>0.0002380280633478835</v>
       </c>
       <c r="T24">
-        <v>0.0001957587293433033</v>
+        <v>0.0002380280633478835</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>73.35356366666666</v>
+        <v>62.503002</v>
       </c>
       <c r="H25">
-        <v>220.060691</v>
+        <v>187.509006</v>
       </c>
       <c r="I25">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="J25">
-        <v>0.1165459068317628</v>
+        <v>0.07563176392116772</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.02089833333333333</v>
+        <v>0.009942666666666667</v>
       </c>
       <c r="N25">
-        <v>0.062695</v>
+        <v>0.029828</v>
       </c>
       <c r="O25">
-        <v>0.0005423608195256678</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="P25">
-        <v>0.0005423608195256676</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="Q25">
-        <v>1.532967224693889</v>
+        <v>0.6214465145520001</v>
       </c>
       <c r="R25">
-        <v>13.796705022245</v>
+        <v>5.593018630968</v>
       </c>
       <c r="S25">
-        <v>6.3209933541637E-05</v>
+        <v>1.506281083082248E-05</v>
       </c>
       <c r="T25">
-        <v>6.320993354163698E-05</v>
+        <v>1.506281083082248E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H26">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I26">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J26">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.816638</v>
+        <v>46.885638</v>
       </c>
       <c r="N26">
-        <v>104.449914</v>
+        <v>140.656914</v>
       </c>
       <c r="O26">
-        <v>0.9035735059642001</v>
+        <v>0.9391581745190208</v>
       </c>
       <c r="P26">
-        <v>0.9035735059641998</v>
+        <v>0.9391581745190206</v>
       </c>
       <c r="Q26">
-        <v>4496.485794835008</v>
+        <v>6726.101867747554</v>
       </c>
       <c r="R26">
-        <v>40468.37215351508</v>
+        <v>60534.91680972798</v>
       </c>
       <c r="S26">
-        <v>0.1854068134556437</v>
+        <v>0.1630293157823249</v>
       </c>
       <c r="T26">
-        <v>0.1854068134556437</v>
+        <v>0.1630293157823249</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H27">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I27">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J27">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.6928</v>
       </c>
       <c r="O27">
-        <v>0.02329482757506529</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="P27">
-        <v>0.02329482757506528</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="Q27">
-        <v>115.9229001216</v>
+        <v>128.7675564208</v>
       </c>
       <c r="R27">
-        <v>1043.3061010944</v>
+        <v>1158.9080077872</v>
       </c>
       <c r="S27">
-        <v>0.004779931817592089</v>
+        <v>0.003121107445444485</v>
       </c>
       <c r="T27">
-        <v>0.004779931817592086</v>
+        <v>0.003121107445444484</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H28">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I28">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J28">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1110283333333333</v>
+        <v>0.055091</v>
       </c>
       <c r="N28">
-        <v>0.333085</v>
+        <v>0.165273</v>
       </c>
       <c r="O28">
-        <v>0.002881445945796428</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="P28">
-        <v>0.002881445945796427</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="Q28">
-        <v>14.33904455845333</v>
+        <v>7.903223541419667</v>
       </c>
       <c r="R28">
-        <v>129.05140102608</v>
+        <v>71.129011872777</v>
       </c>
       <c r="S28">
-        <v>0.0005912520757065734</v>
+        <v>0.0001915607511998464</v>
       </c>
       <c r="T28">
-        <v>0.0005912520757065732</v>
+        <v>0.0001915607511998463</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H29">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I29">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J29">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.621273</v>
+        <v>1.917658</v>
       </c>
       <c r="N29">
-        <v>7.863819</v>
+        <v>5.752974</v>
       </c>
       <c r="O29">
-        <v>0.06802818912898184</v>
+        <v>0.03841227854533613</v>
       </c>
       <c r="P29">
-        <v>0.06802818912898183</v>
+        <v>0.03841227854533612</v>
       </c>
       <c r="Q29">
-        <v>338.531158835168</v>
+        <v>275.1026456225474</v>
       </c>
       <c r="R29">
-        <v>3046.780429516512</v>
+        <v>2475.923810602926</v>
       </c>
       <c r="S29">
-        <v>0.01395889729867989</v>
+        <v>0.006668022127469006</v>
       </c>
       <c r="T29">
-        <v>0.01395889729867988</v>
+        <v>0.006668022127469005</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H30">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I30">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J30">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.06472133333333334</v>
+        <v>0.1571176666666667</v>
       </c>
       <c r="N30">
-        <v>0.194164</v>
+        <v>0.471353</v>
       </c>
       <c r="O30">
-        <v>0.001679670566430844</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="P30">
-        <v>0.001679670566430843</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="Q30">
-        <v>8.358605904341333</v>
+        <v>22.53972594385522</v>
       </c>
       <c r="R30">
-        <v>75.22745313907201</v>
+        <v>202.857533494697</v>
       </c>
       <c r="S30">
-        <v>0.0003446563730804183</v>
+        <v>0.0005463247763415753</v>
       </c>
       <c r="T30">
-        <v>0.0003446563730804182</v>
+        <v>0.0005463247763415753</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>129.147616</v>
+        <v>143.4576163333333</v>
       </c>
       <c r="H31">
-        <v>387.442848</v>
+        <v>430.372849</v>
       </c>
       <c r="I31">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="J31">
-        <v>0.2051928395773366</v>
+        <v>0.1735909032211944</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.02089833333333333</v>
+        <v>0.009942666666666667</v>
       </c>
       <c r="N31">
-        <v>0.062695</v>
+        <v>0.029828</v>
       </c>
       <c r="O31">
-        <v>0.0005423608195256678</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="P31">
-        <v>0.0005423608195256676</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="Q31">
-        <v>2.698969928373334</v>
+        <v>1.426351259996889</v>
       </c>
       <c r="R31">
-        <v>24.29072935536</v>
+        <v>12.837161339972</v>
       </c>
       <c r="S31">
-        <v>0.0001112885566339632</v>
+        <v>3.457233841455663E-05</v>
       </c>
       <c r="T31">
-        <v>0.0001112885566339631</v>
+        <v>3.457233841455663E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H32">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I32">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J32">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>34.816638</v>
+        <v>46.885638</v>
       </c>
       <c r="N32">
-        <v>104.449914</v>
+        <v>140.656914</v>
       </c>
       <c r="O32">
-        <v>0.9035735059642001</v>
+        <v>0.9391581745190208</v>
       </c>
       <c r="P32">
-        <v>0.9035735059641998</v>
+        <v>0.9391581745190206</v>
       </c>
       <c r="Q32">
-        <v>2817.388308566402</v>
+        <v>9527.18320899348</v>
       </c>
       <c r="R32">
-        <v>25356.49477709762</v>
+        <v>85744.64888094131</v>
       </c>
       <c r="S32">
-        <v>0.1161713863654382</v>
+        <v>0.2309227826808402</v>
       </c>
       <c r="T32">
-        <v>0.1161713863654382</v>
+        <v>0.2309227826808401</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H33">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I33">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J33">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.6928</v>
       </c>
       <c r="O33">
-        <v>0.02329482757506529</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="P33">
-        <v>0.02329482757506528</v>
+        <v>0.01797967167362153</v>
       </c>
       <c r="Q33">
-        <v>72.6344613104</v>
+        <v>182.392732896</v>
       </c>
       <c r="R33">
-        <v>653.7101517935999</v>
+        <v>1641.534596064</v>
       </c>
       <c r="S33">
-        <v>0.002994988671841817</v>
+        <v>0.004420890886337564</v>
       </c>
       <c r="T33">
-        <v>0.002994988671841816</v>
+        <v>0.004420890886337563</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H34">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I34">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J34">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.1110283333333333</v>
+        <v>0.055091</v>
       </c>
       <c r="N34">
-        <v>0.333085</v>
+        <v>0.165273</v>
       </c>
       <c r="O34">
-        <v>0.002881445945796428</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="P34">
-        <v>0.002881445945796427</v>
+        <v>0.001103518373631332</v>
       </c>
       <c r="Q34">
-        <v>8.984495523460556</v>
+        <v>11.19451654186</v>
       </c>
       <c r="R34">
-        <v>80.860459711145</v>
+        <v>100.75064887674</v>
       </c>
       <c r="S34">
-        <v>0.0003704641272134699</v>
+        <v>0.0002713361183369237</v>
       </c>
       <c r="T34">
-        <v>0.0003704641272134698</v>
+        <v>0.0002713361183369237</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H35">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I35">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J35">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.621273</v>
+        <v>1.917658</v>
       </c>
       <c r="N35">
-        <v>7.863819</v>
+        <v>5.752974</v>
       </c>
       <c r="O35">
-        <v>0.06802818912898184</v>
+        <v>0.03841227854533613</v>
       </c>
       <c r="P35">
-        <v>0.06802818912898183</v>
+        <v>0.03841227854533612</v>
       </c>
       <c r="Q35">
-        <v>212.1153657559003</v>
+        <v>389.66898772268</v>
       </c>
       <c r="R35">
-        <v>1909.038291803103</v>
+        <v>3507.02088950412</v>
       </c>
       <c r="S35">
-        <v>0.008746304524069536</v>
+        <v>0.009444916193529768</v>
       </c>
       <c r="T35">
-        <v>0.008746304524069534</v>
+        <v>0.009444916193529766</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H36">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I36">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J36">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.06472133333333334</v>
+        <v>0.1571176666666667</v>
       </c>
       <c r="N36">
-        <v>0.194164</v>
+        <v>0.471353</v>
       </c>
       <c r="O36">
-        <v>0.001679670566430844</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="P36">
-        <v>0.001679670566430843</v>
+        <v>0.003147197037424438</v>
       </c>
       <c r="Q36">
-        <v>5.237298553874222</v>
+        <v>31.92638214079333</v>
       </c>
       <c r="R36">
-        <v>47.13568698486799</v>
+        <v>287.3374392671399</v>
       </c>
       <c r="S36">
-        <v>0.000215953275579135</v>
+        <v>0.0007738414222919896</v>
       </c>
       <c r="T36">
-        <v>0.0002159532755791349</v>
+        <v>0.0007738414222919894</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>80.92074566666666</v>
+        <v>203.20046</v>
       </c>
       <c r="H37">
-        <v>242.762237</v>
+        <v>609.6013799999999</v>
       </c>
       <c r="I37">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="J37">
-        <v>0.1285688276588767</v>
+        <v>0.2458827372706463</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.02089833333333333</v>
+        <v>0.009942666666666667</v>
       </c>
       <c r="N37">
-        <v>0.062695</v>
+        <v>0.029828</v>
       </c>
       <c r="O37">
-        <v>0.0005423608195256678</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="P37">
-        <v>0.0005423608195256676</v>
+        <v>0.0001991598509658285</v>
       </c>
       <c r="Q37">
-        <v>1.691108716523889</v>
+        <v>2.020354440293334</v>
       </c>
       <c r="R37">
-        <v>15.219978448715</v>
+        <v>18.18318996264</v>
       </c>
       <c r="S37">
-        <v>6.973069473452272E-05</v>
+        <v>4.896996930989188E-05</v>
       </c>
       <c r="T37">
-        <v>6.973069473452269E-05</v>
+        <v>4.896996930989187E-05</v>
       </c>
     </row>
   </sheetData>
